--- a/files/SAE/Google Earth Points in  ft for Verifying Curvature Consistency.xlsx
+++ b/files/SAE/Google Earth Points in  ft for Verifying Curvature Consistency.xlsx
@@ -1980,7 +1980,7 @@
   <dimension ref="A1:B201"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
